--- a/ЛР3.xlsx
+++ b/ЛР3.xlsx
@@ -1,116 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12270" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
     <sheet name="Отчет об устойчивости 1" sheetId="3" r:id="rId2"/>
     <sheet name="Пример" sheetId="1" r:id="rId3"/>
-    <sheet name="Отчет о результатах 2" sheetId="5" r:id="rId4"/>
-    <sheet name="Задача" sheetId="4" r:id="rId5"/>
+    <sheet name="Задача" sheetId="4" r:id="rId4"/>
+    <sheet name="Задача_ручн" sheetId="7" r:id="rId5"/>
+    <sheet name="Лист5" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Задача_ручн!$B$2:$M$2</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Пример!$B$8:$E$10</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Задача_ручн!$B$2:$M$2</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Пример!$B$11:$E$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Задача!$C$16:$F$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Задача_ручн!$B$2:$M$2</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Пример!$B$8:$E$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Задача!$C$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Задача!$C$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Задача_ручн!$N$10</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Пример!$F$8:$F$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Задача!$D$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Задача!$E$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Задача!$F$19</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Задача!$G$16</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Задача!$G$17</definedName>
-    <definedName name="solver_lhs9" localSheetId="4" hidden="1">Задача!$G$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Задача!$D$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Задача_ручн!$N$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Задача!$E$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Задача_ручн!$N$5</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Задача!$F$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Задача_ручн!$N$6</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Задача!$G$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Задача_ручн!$N$7</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Задача!$G$17</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Задача_ручн!$N$8</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">Задача!$G$18</definedName>
+    <definedName name="solver_lhs9" localSheetId="4" hidden="1">Задача_ручн!$N$9</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Задача!$K$3</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Задача!$K$3</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Задача_ручн!$N$2</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Пример!$G$3</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel9" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">целое</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">целое</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">Пример!$B$6:$E$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">300</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">300</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Задача_ручн!$P$10</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">Пример!$F$3:$F$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">200</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">1000</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">500</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">Задача!$B$3</definedName>
-    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Задача!$B$4</definedName>
-    <definedName name="solver_rhs9" localSheetId="4" hidden="1">Задача!$B$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">200</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Задача_ручн!$P$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Задача_ручн!$P$5</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">500</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">Задача_ручн!$P$6</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">Задача!$B$3</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">Задача_ручн!$P$7</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Задача!$B$4</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Задача_ручн!$P$8</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">Задача!$B$5</definedName>
+    <definedName name="solver_rhs9" localSheetId="4" hidden="1">Задача_ручн!$P$9</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="179">
   <si>
     <t>Пункты назначения</t>
   </si>
@@ -386,148 +436,283 @@
     <t>ЦФ</t>
   </si>
   <si>
-    <t>Лист: [ЛР3.xlsx]Задача</t>
-  </si>
-  <si>
-    <t>Отчет создан: 2018.10.30 19:40:52</t>
-  </si>
-  <si>
-    <t>Результат: Целочисленное решение найдено в пределах допустимого отклонения. Все ограничения выполнены.</t>
-  </si>
-  <si>
-    <t>Время решения: 0,187 секунд.</t>
-  </si>
-  <si>
-    <t>Число итераций: 4 Число подзадач: 202</t>
-  </si>
-  <si>
-    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0,000001</t>
-  </si>
-  <si>
-    <t>$K$3</t>
-  </si>
-  <si>
-    <t>$C$16</t>
-  </si>
-  <si>
-    <t>$D$16</t>
-  </si>
-  <si>
-    <t>$E$16</t>
-  </si>
-  <si>
-    <t>$F$16</t>
-  </si>
-  <si>
-    <t>$C$17</t>
-  </si>
-  <si>
-    <t>$D$17</t>
-  </si>
-  <si>
-    <t>$E$17</t>
-  </si>
-  <si>
-    <t>$F$17</t>
-  </si>
-  <si>
-    <t>$C$18</t>
-  </si>
-  <si>
-    <t>$D$18</t>
-  </si>
-  <si>
-    <t>$E$18</t>
-  </si>
-  <si>
-    <t>$F$18</t>
-  </si>
-  <si>
-    <t>$C$19</t>
-  </si>
-  <si>
-    <t>$C$19=300</t>
-  </si>
-  <si>
-    <t>$D$19</t>
-  </si>
-  <si>
-    <t>$D$19=200</t>
-  </si>
-  <si>
-    <t>$E$19</t>
-  </si>
-  <si>
-    <t>$E$19=1000</t>
-  </si>
-  <si>
-    <t>$F$19</t>
-  </si>
-  <si>
-    <t>$F$19=500</t>
-  </si>
-  <si>
-    <t>$G$16</t>
-  </si>
-  <si>
-    <t>$G$16=$B$3</t>
-  </si>
-  <si>
-    <t>$G$17</t>
-  </si>
-  <si>
-    <t>$G$17=$B$4</t>
-  </si>
-  <si>
-    <t>$G$18</t>
-  </si>
-  <si>
-    <t>$G$18=$B$5</t>
-  </si>
-  <si>
-    <t>$C$16&gt;=0</t>
-  </si>
-  <si>
-    <t>$D$16&gt;=0</t>
-  </si>
-  <si>
-    <t>$E$16&gt;=0</t>
-  </si>
-  <si>
-    <t>$F$16&gt;=0</t>
-  </si>
-  <si>
-    <t>$C$17&gt;=0</t>
-  </si>
-  <si>
-    <t>$D$17&gt;=0</t>
-  </si>
-  <si>
-    <t>$E$17&gt;=0</t>
-  </si>
-  <si>
-    <t>$F$17&gt;=0</t>
-  </si>
-  <si>
-    <t>$C$18&gt;=0</t>
-  </si>
-  <si>
-    <t>$D$18&gt;=0</t>
-  </si>
-  <si>
-    <t>$E$18&gt;=0</t>
-  </si>
-  <si>
-    <t>$F$18&gt;=0</t>
-  </si>
-  <si>
-    <t>$C$16:$F$18=Целочисленное</t>
+    <t>Ед. груза</t>
+  </si>
+  <si>
+    <t>Кол-во самолетов</t>
+  </si>
+  <si>
+    <t>Авиалинии</t>
+  </si>
+  <si>
+    <t>Х11</t>
+  </si>
+  <si>
+    <t>Х12</t>
+  </si>
+  <si>
+    <t>Х13</t>
+  </si>
+  <si>
+    <t>Х14</t>
+  </si>
+  <si>
+    <t>Х21</t>
+  </si>
+  <si>
+    <t>Х22</t>
+  </si>
+  <si>
+    <t>Х23</t>
+  </si>
+  <si>
+    <t>Х24</t>
+  </si>
+  <si>
+    <t>Х31</t>
+  </si>
+  <si>
+    <t>Х32</t>
+  </si>
+  <si>
+    <t>Х33</t>
+  </si>
+  <si>
+    <t>Х34</t>
+  </si>
+  <si>
+    <t>Св. перем.</t>
+  </si>
+  <si>
+    <t>По количеству самолетов</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>По грузу</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>ЛЧ</t>
+  </si>
+  <si>
+    <t>знак</t>
+  </si>
+  <si>
+    <t>ПЧ</t>
+  </si>
+  <si>
+    <t>Эксплуатац. расходы</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>БП</t>
+  </si>
+  <si>
+    <t>Хб</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - M</t>
+  </si>
+  <si>
+    <t>(-M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2100M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -16M-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -11M-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -21M-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -51M-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -21M-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -26M-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -11M-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -11M-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -36M-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -51M-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -31M-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -46M-60</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>План:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16M+15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21M+25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51M+40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21M+70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11M+15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11M+45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36M+40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31M+50</t>
+  </si>
+  <si>
+    <t>Перевод по правилу прямоугольника</t>
+  </si>
+  <si>
+    <t>0,8M+6</t>
+  </si>
+  <si>
+    <t>0,5M-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,02M-1,4</t>
+  </si>
+  <si>
+    <t>1,02M+1,4</t>
+  </si>
+  <si>
+    <t>Перевод остальных</t>
+  </si>
+  <si>
+    <t>Поиск нового опорного столбца</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,8M-6</t>
+  </si>
+  <si>
+    <t>1,13M+1,56</t>
+  </si>
+  <si>
+    <t>0,778M-31,67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0,5M+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51M+70</t>
+  </si>
+  <si>
+    <t>0,022M-1,33</t>
+  </si>
+  <si>
+    <t>1,022M+1,333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,7 +748,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,8 +761,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -708,11 +923,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,23 +973,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2266,7 +2560,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,724 +2761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3040</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="7">
-        <v>13</v>
-      </c>
-      <c r="E21" s="7">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7">
-        <v>15</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="7">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7">
-        <v>17</v>
-      </c>
-      <c r="E31" s="7">
-        <v>17</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="7">
-        <v>300</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="7">
-        <v>200</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7">
-        <v>500</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="7">
-        <v>50</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="7">
-        <v>20</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="7">
-        <v>30</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="7">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7">
-        <v>20</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7">
-        <v>17</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="7">
-        <v>15</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7">
-        <v>5</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="7">
-        <v>3</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="7">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="7">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,44 +2780,44 @@
       <c r="B1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="13" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
         <v>2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="17">
         <v>4</v>
       </c>
       <c r="K2" t="s">
@@ -3245,7 +2825,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="10">
@@ -3277,11 +2857,11 @@
       </c>
       <c r="K3">
         <f>SUMPRODUCT(G3:J5,C16:F18)</f>
-        <v>3040</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="10">
@@ -3313,7 +2893,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="10">
@@ -3344,64 +2924,105 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <f>SUM(C16:F16)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G18" si="0">SUM(C17:F17)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
       <c r="C19">
         <f>SUMPRODUCT(C3:C5,C16:C18)</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:F19" si="1">SUMPRODUCT(D3:D5,D16:D18)</f>
@@ -3413,15 +3034,2366 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="22">
+        <v>20</v>
+      </c>
+      <c r="C2" s="22">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>10</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>20</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>27</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <f>SUMPRODUCT(B2:M2,B3:M3)</f>
+        <v>2870</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="21">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21">
+        <v>25</v>
+      </c>
+      <c r="E3" s="21">
+        <v>40</v>
+      </c>
+      <c r="F3" s="21">
+        <v>70</v>
+      </c>
+      <c r="G3" s="21">
+        <v>28</v>
+      </c>
+      <c r="H3" s="21">
+        <v>15</v>
+      </c>
+      <c r="I3" s="21">
+        <v>45</v>
+      </c>
+      <c r="J3" s="21">
+        <v>40</v>
+      </c>
+      <c r="K3" s="21">
+        <v>70</v>
+      </c>
+      <c r="L3" s="21">
+        <v>50</v>
+      </c>
+      <c r="M3" s="21">
+        <v>60</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <f>SUMPRODUCT($B$2:$M$2,B5:M5)</f>
+        <v>50</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" ref="N6:N7" si="0">SUMPRODUCT($B$2:$M$2,B6:M6)</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="24">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>20</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>35</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <f>SUMPRODUCT($B$2:$M$2,B8:M8)</f>
+        <v>405</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
+        <v>50</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" ref="N9:N11" si="1">SUMPRODUCT($B$2:$M$2,B9:M9)</f>
+        <v>200</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>20</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>10</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <v>30</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>50</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>10</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>45</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="21">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="30">
+        <v>15</v>
+      </c>
+      <c r="E1" s="30">
+        <v>20</v>
+      </c>
+      <c r="F1" s="30">
+        <v>25</v>
+      </c>
+      <c r="G1" s="30">
+        <v>40</v>
+      </c>
+      <c r="H1" s="30">
+        <v>70</v>
+      </c>
+      <c r="I1" s="30">
+        <v>28</v>
+      </c>
+      <c r="J1" s="30">
+        <v>15</v>
+      </c>
+      <c r="K1" s="30">
+        <v>45</v>
+      </c>
+      <c r="L1" s="30">
+        <v>40</v>
+      </c>
+      <c r="M1" s="30">
+        <v>70</v>
+      </c>
+      <c r="N1" s="30">
+        <v>50</v>
+      </c>
+      <c r="O1" s="30">
+        <v>60</v>
+      </c>
+      <c r="P1" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="30">
+        <v>0</v>
+      </c>
+      <c r="R1" s="30">
+        <v>0</v>
+      </c>
+      <c r="S1" s="30">
+        <v>0</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="32">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="34">
+        <v>200</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35">
+        <v>10</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35">
+        <v>25</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36">
+        <v>50</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="O9">
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="40"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB13" s="40"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="40"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="40"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="40"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="V17">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="40"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="40"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="34">
+        <v>200</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35">
+        <v>10</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35">
+        <v>25</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36">
+        <v>50</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="37"/>
+      <c r="AB19" s="40"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>-20</v>
+      </c>
+      <c r="J20">
+        <v>-10</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="40"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="G21">
+        <v>-50</v>
+      </c>
+      <c r="K21">
+        <v>-10</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="O21">
+        <v>45</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="40"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="19">
+        <v>0</v>
+      </c>
+      <c r="V22" s="19">
+        <v>0</v>
+      </c>
+      <c r="W22" s="19">
+        <v>0</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="40"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA26" s="29"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="31"/>
+      <c r="T27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="U28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="V29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="34">
+        <v>4</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36">
+        <v>1</v>
+      </c>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35">
+        <v>-0.02</v>
+      </c>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="37"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="F32">
+        <v>-20</v>
+      </c>
+      <c r="J32">
+        <v>-10</v>
+      </c>
+      <c r="M32" s="32"/>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <v>500</v>
+      </c>
+      <c r="G33">
+        <v>-50</v>
+      </c>
+      <c r="K33">
+        <v>-10</v>
+      </c>
+      <c r="M33" s="32"/>
+      <c r="O33">
+        <v>45</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M34" s="33"/>
+      <c r="N34" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0</v>
+      </c>
+      <c r="V34" s="19">
+        <v>0</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0</v>
+      </c>
+      <c r="X34" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q38" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="U38" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="V38" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="W38" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="X38" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z38" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA38" s="29"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="38">
+        <v>50</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40">
+        <v>1</v>
+      </c>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="38">
+        <v>20</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38">
+        <v>1</v>
+      </c>
+      <c r="I40" s="38">
+        <v>1</v>
+      </c>
+      <c r="J40" s="38">
+        <v>1</v>
+      </c>
+      <c r="K40" s="40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="38">
+        <v>33.4</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38">
+        <v>1</v>
+      </c>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="32">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="38">
+        <v>300</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38">
+        <v>35</v>
+      </c>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="38">
+        <v>4</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38">
+        <v>1</v>
+      </c>
+      <c r="N43" s="38"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38">
+        <v>30</v>
+      </c>
+      <c r="O44" s="32"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="34">
+        <v>500</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35">
+        <v>-50</v>
+      </c>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35">
+        <v>-10</v>
+      </c>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="36">
+        <v>45</v>
+      </c>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="T46" s="39">
+        <v>0</v>
+      </c>
+      <c r="U46" s="39">
+        <v>0</v>
+      </c>
+      <c r="V46" s="39">
+        <v>0</v>
+      </c>
+      <c r="W46" s="39">
+        <v>0</v>
+      </c>
+      <c r="X46" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="A36:AA36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="A12:AA12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="A24:AA24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
